--- a/Star Regein/Star Regein/MercuryVirgo.xlsx
+++ b/Star Regein/Star Regein/MercuryVirgo.xlsx
@@ -15,15 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,32 +76,32 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="478">
+  <dxfs count="320">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
         </patternFill>
       </fill>
     </dxf>
@@ -197,6 +192,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -283,6 +306,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -627,34 +678,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -827,34 +850,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -941,34 +936,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1744,6 +1711,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2417,1220 +2394,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3825,6 +2588,460 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="606137" y="1853045"/>
+          <a:ext cx="8243454" cy="4710546"/>
+          <a:chOff x="640773" y="2493817"/>
+          <a:chExt cx="8243454" cy="4710547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3931227" y="6026730"/>
+            <a:ext cx="554185" cy="1177634"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="グループ化 32"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="640773" y="2493817"/>
+            <a:ext cx="8243454" cy="4156365"/>
+            <a:chOff x="640773" y="2493817"/>
+            <a:chExt cx="8243454" cy="4156365"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="8139545" y="3359727"/>
+              <a:ext cx="744682" cy="554182"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5437909" y="2493817"/>
+              <a:ext cx="2718955" cy="883228"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5455228" y="2511137"/>
+              <a:ext cx="155863" cy="1610590"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="5611093" y="4104410"/>
+              <a:ext cx="363680" cy="1523999"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6026727" y="5489865"/>
+              <a:ext cx="969820" cy="155862"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6961909" y="4970320"/>
+              <a:ext cx="1524002" cy="519544"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4468091" y="5628411"/>
+              <a:ext cx="1524002" cy="363680"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3740727" y="4121729"/>
+              <a:ext cx="1853048" cy="484907"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="2199409" y="4069775"/>
+              <a:ext cx="3446321" cy="207816"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="640773" y="4087091"/>
+              <a:ext cx="1593272" cy="173182"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="658091" y="5455227"/>
+              <a:ext cx="987136" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1662546" y="5836227"/>
+              <a:ext cx="2840181" cy="173182"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="1558637" y="6009409"/>
+              <a:ext cx="2926772" cy="640773"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4092,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY33" sqref="BY33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5707,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -6509,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
@@ -6977,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="1">
         <v>0</v>
@@ -7000,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -7078,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="1">
         <v>0</v>
@@ -7176,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -7504,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -8035,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -8368,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -8467,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -8604,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30" s="1">
         <v>0</v>
@@ -8687,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -8884,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
@@ -9447,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -9939,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
@@ -11703,1572 +10920,1244 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="477" priority="464" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="319" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="465" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="474" priority="462" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="316" priority="462" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="463" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="472" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="314" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="470" priority="459" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="312" priority="459" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="469" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="311" priority="458" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 A36:B38 A21:B23 AX19:AX24 A19:AA20 AS17:AX18 AW14:AX16 AX26:AX42 Y44:AX44 AR45:AX46 A50:AX50 A30:H33 A27:C29 A16:F18 A11:AX13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:AX4 N5:AX7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="468" priority="457" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 AB8:AX9 AX47:AX49 A36:B38 AX19:AX24 AR45:AX46 A50:AX50 A5:J7 A2:M4 Q2:AX4 N5:AX7 B3:M9 C2:AW9 AW25:AX25 A45:O45 AX26:AX44 A8:C10 AW10:AX18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="310" priority="457" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 A49:H49 A44:O45 A43:XFD43 A39:V39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AX47:XFD49 A1:XFD1 A36:B38 A21:B23 AX19:XFD24 A19:AA20 AS17:XFD18 AW14:XFD16 AX26:XFD42 Y44:XFD44 AR45:XFD46 A50:XFD1048576 A30:H33 A27:C29 A16:F18 A11:XFD13 A8:C10 A5:J7 A2:M4 A40:D42 A34:I35 A24:AW24 Q2:XFD4 N5:XFD7 B3:M49 C2:AW49">
-    <cfRule type="cellIs" dxfId="467" priority="456" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 AB8:XFD9 AX47:XFD49 A1:XFD1 A36:B38 AX19:XFD24 AR45:XFD46 A50:XFD1048576 A5:J7 A2:M4 Q2:XFD4 N5:XFD7 B3:M9 C2:AW9 AW25:XFD25 A45:O45 AX26:XFD44 A8:C10 AW10:XFD18 A39:C44 K45:K50 AW16:AW41 B45:AW49 D10:AV10 D42:AW44 A26:C35 B26:C44 D26:AV41 A11:AV25">
+    <cfRule type="cellIs" dxfId="309" priority="456" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="466" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="277" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="278" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="463" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="275" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="276" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="461" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="459" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="458" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="271" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="457" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="270" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="456" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="269" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="455" priority="115" operator="equal">
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="297" priority="442" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="443" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="444" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="294" priority="440" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="441" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="292" priority="438" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="439" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="290" priority="437" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="289" priority="436" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="288" priority="435" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E48">
+    <cfRule type="cellIs" dxfId="287" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="454" priority="442" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="286" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="451" priority="440" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="283" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="449" priority="438" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="281" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="447" priority="437" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="279" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="446" priority="436" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="278" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="445" priority="435" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="277" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="444" priority="434" operator="equal">
+  <conditionalFormatting sqref="I47:K49">
+    <cfRule type="cellIs" dxfId="276" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="443" priority="431" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="275" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="440" priority="429" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="272" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="438" priority="427" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="270" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="436" priority="426" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="268" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="435" priority="425" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="267" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="434" priority="424" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="266" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="433" priority="423" operator="equal">
+  <conditionalFormatting sqref="W36:Y38">
+    <cfRule type="cellIs" dxfId="265" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="432" priority="409" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="264" priority="354" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="429" priority="407" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="261" priority="352" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="353" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="427" priority="405" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="259" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="425" priority="404" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="257" priority="349" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="424" priority="403" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="256" priority="348" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="423" priority="402" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="255" priority="347" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="422" priority="401" operator="equal">
+  <conditionalFormatting sqref="V11:X12">
+    <cfRule type="cellIs" dxfId="254" priority="346" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="421" priority="398" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="253" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="377" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="418" priority="396" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="250" priority="374" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="375" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="416" priority="394" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="248" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="414" priority="393" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="246" priority="371" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="413" priority="392" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="245" priority="370" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="412" priority="391" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="244" priority="369" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="411" priority="390" operator="equal">
+  <conditionalFormatting sqref="X21:Z23">
+    <cfRule type="cellIs" dxfId="243" priority="368" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="410" priority="354" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="242" priority="343" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="344" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="407" priority="352" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="239" priority="341" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="342" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="405" priority="350" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="237" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="403" priority="349" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="235" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="402" priority="348" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="234" priority="337" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="401" priority="347" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="233" priority="336" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="400" priority="346" operator="equal">
+  <conditionalFormatting sqref="Y8:AA9 Y12:AA14 Y21:AA23 Y32:AA34">
+    <cfRule type="cellIs" dxfId="232" priority="335" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="399" priority="376" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="231" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="396" priority="374" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="228" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="394" priority="372" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="226" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="392" priority="371" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="224" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="391" priority="370" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="223" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="390" priority="369" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="222" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="389" priority="368" operator="equal">
+  <conditionalFormatting sqref="AB13:AD15">
+    <cfRule type="cellIs" dxfId="221" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="388" priority="145" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="220" priority="211" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="385" priority="143" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="217" priority="209" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="383" priority="141" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="215" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="381" priority="140" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="213" priority="206" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="380" priority="139" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="212" priority="205" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="379" priority="138" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="211" priority="204" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="378" priority="137" operator="equal">
+  <conditionalFormatting sqref="AF12:AH14">
+    <cfRule type="cellIs" dxfId="210" priority="203" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="377" priority="343" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="209" priority="299" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="300" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="374" priority="341" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="206" priority="297" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="298" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="372" priority="339" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="204" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="370" priority="338" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="202" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="369" priority="337" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="201" priority="293" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="368" priority="336" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="200" priority="292" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AA10 Y17:AA19 Y26:AA28 Y35:AA37 Y44:AA46">
-    <cfRule type="cellIs" dxfId="367" priority="335" operator="equal">
+  <conditionalFormatting sqref="AD37:AF39">
+    <cfRule type="cellIs" dxfId="199" priority="291" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="366" priority="222" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="198" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="289" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="363" priority="220" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="195" priority="286" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="287" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="361" priority="218" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="193" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="359" priority="217" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="191" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="358" priority="216" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="190" priority="282" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="357" priority="215" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="189" priority="281" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="356" priority="214" operator="equal">
+  <conditionalFormatting sqref="AG46:AI48">
+    <cfRule type="cellIs" dxfId="188" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="355" priority="211" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="187" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="352" priority="209" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="184" priority="264" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="350" priority="207" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="182" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="348" priority="206" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="180" priority="261" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="347" priority="205" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="179" priority="260" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="346" priority="204" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="178" priority="259" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="345" priority="203" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="177" priority="258" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="344" priority="299" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="176" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="341" priority="297" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="173" priority="132" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="339" priority="295" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="171" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="337" priority="294" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="169" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="336" priority="293" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="168" priority="128" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="335" priority="292" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="167" priority="127" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="334" priority="291" operator="equal">
+  <conditionalFormatting sqref="AT36:AV38">
+    <cfRule type="cellIs" dxfId="166" priority="126" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="333" priority="288" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="165" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="201" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="330" priority="286" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="162" priority="198" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="199" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="328" priority="284" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="160" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="326" priority="283" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="158" priority="195" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="325" priority="282" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="157" priority="194" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="324" priority="281" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="156" priority="193" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="323" priority="280" operator="equal">
+  <conditionalFormatting sqref="AK11:AM13">
+    <cfRule type="cellIs" dxfId="155" priority="192" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="322" priority="266" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="154" priority="189" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="190" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="319" priority="264" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="151" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="188" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="317" priority="262" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="149" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="315" priority="261" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="147" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="314" priority="260" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="146" priority="183" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="313" priority="259" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="145" priority="182" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="312" priority="258" operator="equal">
+  <conditionalFormatting sqref="AP12:AR14">
+    <cfRule type="cellIs" dxfId="144" priority="181" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="311" priority="255" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="143" priority="178" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="308" priority="253" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="140" priority="176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="306" priority="251" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="138" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="304" priority="250" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="136" priority="173" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="303" priority="249" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="135" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="302" priority="248" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="134" priority="171" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="301" priority="247" operator="equal">
+  <conditionalFormatting sqref="AT11:AV11">
+    <cfRule type="cellIs" dxfId="133" priority="170" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="300" priority="134" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="132" priority="167" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="297" priority="132" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="129" priority="165" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="166" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="295" priority="130" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="127" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="293" priority="129" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="125" priority="162" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="292" priority="128" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="124" priority="161" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="291" priority="127" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="123" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="290" priority="126" operator="equal">
+  <conditionalFormatting sqref="AS32:AT34 AS36:AS38 AW39:AW41 AP21:AT21 AP27:AT28">
+    <cfRule type="cellIs" dxfId="122" priority="159" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="289" priority="233" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="121" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="286" priority="231" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="118" priority="99" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="284" priority="229" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="116" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="282" priority="228" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="281" priority="227" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="113" priority="95" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="280" priority="226" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="112" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="279" priority="225" operator="equal">
+  <conditionalFormatting sqref="G11:I13">
+    <cfRule type="cellIs" dxfId="111" priority="93" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="278" priority="200" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="110" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="275" priority="198" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="107" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="89" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="273" priority="196" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="105" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="271" priority="195" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="103" priority="85" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="270" priority="194" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="102" priority="84" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="269" priority="193" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="101" priority="83" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="268" priority="192" operator="equal">
+  <conditionalFormatting sqref="D8:F9 D12:F14 D21:F23 D32:F34">
+    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="267" priority="189" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="99" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="264" priority="187" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="96" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="78" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="262" priority="185" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="94" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="260" priority="184" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="92" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="259" priority="183" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="91" priority="73" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="258" priority="182" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="257" priority="181" operator="equal">
+  <conditionalFormatting sqref="I8:K9 I12:K14 I21:K23 I32:K34">
+    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="256" priority="178" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="253" priority="176" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="85" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="251" priority="174" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="249" priority="173" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="248" priority="172" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="80" priority="62" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="247" priority="171" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="246" priority="170" operator="equal">
+  <conditionalFormatting sqref="K5:M7 K18:M20 K29:M31 K38:M40 K11:M11">
+    <cfRule type="cellIs" dxfId="78" priority="60" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="245" priority="167" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="77" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="242" priority="165" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="74" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="56" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="240" priority="163" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="72" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="238" priority="162" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="237" priority="161" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="236" priority="160" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="235" priority="159" operator="equal">
+  <conditionalFormatting sqref="N2:P10">
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="234" priority="156" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="231" priority="154" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="63" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="229" priority="152" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="61" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="227" priority="151" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="226" priority="150" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="225" priority="149" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="224" priority="148" operator="equal">
+  <conditionalFormatting sqref="E37:G39">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="223" priority="123" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="220" priority="121" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="218" priority="119" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="216" priority="118" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="215" priority="117" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="214" priority="116" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="213" priority="112" operator="equal">
+  <conditionalFormatting sqref="J30:L32">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="210" priority="110" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="208" priority="108" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="206" priority="107" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="205" priority="106" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="204" priority="105" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="203" priority="104" operator="equal">
+  <conditionalFormatting sqref="T28:V30">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="202" priority="101" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="102" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="100" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="197" priority="97" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="98" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="195" priority="96" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="194" priority="95" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="193" priority="94" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="192" priority="93" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="191" priority="90" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="91" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="188" priority="88" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="89" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="186" priority="86" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="87" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="184" priority="85" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="183" priority="84" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="182" priority="83" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F10 D17:F19 D26:F28 D35:F37 D44:F46">
-    <cfRule type="cellIs" dxfId="181" priority="82" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="180" priority="79" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="80" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="177" priority="77" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="78" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="175" priority="75" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="76" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="173" priority="74" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="172" priority="73" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10 I17:K19 I26:K28 I35:K37 I44:K46">
-    <cfRule type="cellIs" dxfId="170" priority="71" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="169" priority="68" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="69" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="166" priority="66" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="67" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="164" priority="64" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="65" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="162" priority="63" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="161" priority="62" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="160" priority="61" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 K14:M16 K23:M25 K32:M34 K41:M43">
-    <cfRule type="cellIs" dxfId="159" priority="60" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="158" priority="57" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="58" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="155" priority="55" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="56" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="153" priority="53" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="54" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="151" priority="52" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="150" priority="51" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="149" priority="50" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P49">
-    <cfRule type="cellIs" dxfId="148" priority="49" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="147" priority="46" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="47" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="45" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="43" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="140" priority="41" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="136" priority="35" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="36" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="133" priority="33" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="34" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="129" priority="30" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="128" priority="29" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="127" priority="28" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
-      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>